--- a/biology/Zoologie/Anguis/Anguis.xlsx
+++ b/biology/Zoologie/Anguis/Anguis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anguis est un genre de sauriens de la famille des Anguidae[1]. Les espèces européennes sont appelées Orvet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anguis est un genre de sauriens de la famille des Anguidae. Les espèces européennes sont appelées Orvet.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 6 espèces de ce genre se rencontrent en Europe et au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 6 espèces de ce genre se rencontrent en Europe et au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (29 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (29 avril 2014) :
 Anguis cephallonica Werner, 1894
 Anguis colchica (Nordmann, 1840)
 Anguis fragilis Linnaeus, 1758
@@ -584,9 +600,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Anguis, vient du latin angustus, étroit, puis anguis, serpent, car ce genre contient des lézards sans pattes[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Anguis, vient du latin angustus, étroit, puis anguis, serpent, car ce genre contient des lézards sans pattes.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
